--- a/Doc/ERD설계/ERD_취합_240321.xlsx
+++ b/Doc/ERD설계/ERD_취합_240321.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai_chat\프로젝트02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubul\Desktop\AIPT_brian\Doc\ERD설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE87FF6-282B-4076-99C0-8893A2018F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="11115"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="5" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
   <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,12 +1301,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pt_log.user_code : boram001
+pt_log.daily_program : 스트레칭, 스쿼트, 줄넘기, 스트레칭
+pt_log.done_datetime : 2024-03-21 14:36:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_qna.unit_name : 스쿼트
+pt_qna.question : 내려갈때 무릎이 아픈데요?
+Pt_qna.answer : 무릎이 바깥쪽으로 벌어지지 않게 주의하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt.goal : 체중감량 
+pt.level : 입문자
+pt.abnormal : 심혈관 질환
+pt.plan_name : 체중감량 (입문자)
+pt.plan_desc : 1주차부터 매일 30분씩 달리고, 블라블라 운동 어쩌고 저쩌고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1607,6 +1628,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1644,7 +1668,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51188656-ABC7-185F-B0F2-003B920BF0D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51188656-ABC7-185F-B0F2-003B920BF0D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1687,7 @@
           <xdr:cNvPr id="3" name="Object 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8530D622-1162-D11F-8C6C-E6CA1D7998AE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8530D622-1162-D11F-8C6C-E6CA1D7998AE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1708,7 +1732,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A5CBCF8-FC55-54A5-A9AF-5A566E0A9FA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5CBCF8-FC55-54A5-A9AF-5A566E0A9FA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1751,7 @@
           <xdr:cNvPr id="5" name="Object 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C111AB5A-A3A3-8B30-2E72-B28309196882}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C111AB5A-A3A3-8B30-2E72-B28309196882}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2019,21 +2043,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="3" width="12.375" customWidth="1"/>
+    <col min="1" max="3" width="12.34765625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="6" max="6" width="67.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -2048,7 +2073,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="148.5">
+    <row r="2" spans="1:6" ht="148.5" x14ac:dyDescent="0.7">
       <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
@@ -2061,7 +2086,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="82.5">
+    <row r="3" spans="1:6" ht="82.5" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
       <c r="B3" s="28" t="s">
         <v>110</v>
@@ -2074,7 +2099,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="49.5">
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.7">
       <c r="A4" s="23"/>
       <c r="B4" s="28" t="s">
         <v>114</v>
@@ -2085,7 +2110,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="115.5">
+    <row r="5" spans="1:6" ht="115.5" x14ac:dyDescent="0.7">
       <c r="A5" s="30" t="s">
         <v>24</v>
       </c>
@@ -2099,8 +2124,11 @@
       <c r="E5" s="15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="66">
+      <c r="F5" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.7">
       <c r="A6" s="31"/>
       <c r="B6" s="24" t="s">
         <v>111</v>
@@ -2114,8 +2142,11 @@
       <c r="E6" s="19" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="66">
+      <c r="F6" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.7">
       <c r="A7" s="31"/>
       <c r="B7" s="25"/>
       <c r="C7" s="14" t="s">
@@ -2125,8 +2156,11 @@
         <v>117</v>
       </c>
       <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="280.5">
+      <c r="F7" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="280.5" x14ac:dyDescent="0.7">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="132">
+    <row r="9" spans="1:6" ht="132" x14ac:dyDescent="0.7">
       <c r="A9" s="23"/>
       <c r="B9" s="25"/>
       <c r="C9" s="14" t="s">
@@ -2154,7 +2188,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="82.5">
+    <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.7">
       <c r="A10" s="23"/>
       <c r="B10" s="14" t="s">
         <v>113</v>
@@ -2167,7 +2201,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="C12" s="12" t="s">
         <v>123</v>
       </c>
@@ -2175,7 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="C13" s="21" t="s">
         <v>128</v>
       </c>
@@ -2183,7 +2217,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="C14" s="20" t="s">
         <v>124</v>
       </c>
@@ -2210,21 +2244,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="3" width="12.375" customWidth="1"/>
+    <col min="1" max="3" width="12.34765625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2273,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="148.5">
+    <row r="2" spans="1:5" ht="148.5" x14ac:dyDescent="0.7">
       <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2286,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="82.5">
+    <row r="3" spans="1:5" ht="82.5" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
       <c r="B3" s="28" t="s">
         <v>110</v>
@@ -2265,7 +2299,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="49.5">
+    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.7">
       <c r="A4" s="23"/>
       <c r="B4" s="28" t="s">
         <v>114</v>
@@ -2276,7 +2310,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="115.5">
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.7">
       <c r="A5" s="30" t="s">
         <v>24</v>
       </c>
@@ -2291,7 +2325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="66">
+    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.7">
       <c r="A6" s="31"/>
       <c r="B6" s="24" t="s">
         <v>111</v>
@@ -2306,7 +2340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="66">
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.7">
       <c r="A7" s="31"/>
       <c r="B7" s="25"/>
       <c r="C7" s="14" t="s">
@@ -2317,7 +2351,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="264">
+    <row r="8" spans="1:5" ht="264" x14ac:dyDescent="0.7">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="112.15" customHeight="1">
+    <row r="9" spans="1:5" ht="112.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="23"/>
       <c r="B9" s="25"/>
       <c r="C9" s="14" t="s">
@@ -2345,7 +2379,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="82.5">
+    <row r="10" spans="1:5" ht="82.5" x14ac:dyDescent="0.7">
       <c r="A10" s="23"/>
       <c r="B10" s="14" t="s">
         <v>113</v>
@@ -2358,7 +2392,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="C12" s="12" t="s">
         <v>123</v>
       </c>
@@ -2366,7 +2400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="C13" s="21" t="s">
         <v>128</v>
       </c>
@@ -2374,7 +2408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="C14" s="20" t="s">
         <v>124</v>
       </c>
@@ -2384,16 +2418,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2401,28 +2435,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="22.34765625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
     <col min="4" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" customWidth="1"/>
+    <col min="11" max="11" width="10.84765625" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="13.09765625" customWidth="1"/>
     <col min="14" max="14" width="10.25" customWidth="1"/>
     <col min="16" max="16" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
@@ -2479,7 +2513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A3" s="32"/>
       <c r="B3" s="5" t="s">
         <v>59</v>
@@ -2506,7 +2540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A4" s="32"/>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -2520,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A5" s="32"/>
       <c r="B5" s="5" t="s">
         <v>58</v>
@@ -2534,7 +2568,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -2553,7 +2587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A7" s="32"/>
       <c r="B7" s="5" t="s">
         <v>57</v>
@@ -2569,7 +2603,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A8" s="32"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -2586,7 +2620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A9" s="32"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
@@ -2600,7 +2634,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A10" s="32"/>
       <c r="B10" s="5" t="s">
         <v>60</v>
@@ -2617,7 +2651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A11" s="32"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -2631,7 +2665,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A12" s="32"/>
       <c r="B12" s="5" t="s">
         <v>42</v>
@@ -2645,7 +2679,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>30</v>
@@ -2659,7 +2693,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2673,7 +2707,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A15" s="32"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
@@ -2687,7 +2721,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A16" s="32"/>
       <c r="B16" s="2" t="s">
         <v>39</v>
@@ -2703,7 +2737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A17" s="32"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -2719,7 +2753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
@@ -2728,7 +2762,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -2744,7 +2778,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>97</v>
@@ -2758,7 +2792,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A21" s="32" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -2792,7 +2826,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -2806,7 +2840,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A24" s="32"/>
       <c r="B24" s="5" t="s">
         <v>22</v>
@@ -2820,7 +2854,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A25" s="32" t="s">
         <v>26</v>
       </c>
@@ -2838,7 +2872,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A26" s="32"/>
       <c r="B26" s="5" t="s">
         <v>18</v>
@@ -2852,7 +2886,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A27" s="32"/>
       <c r="B27" s="5" t="s">
         <v>19</v>
@@ -2866,7 +2900,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A28" s="32" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2916,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A29" s="32"/>
       <c r="B29" s="5" t="s">
         <v>8</v>
@@ -2896,7 +2930,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A30" s="32"/>
       <c r="B30" s="5" t="s">
         <v>9</v>
@@ -2910,7 +2944,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
@@ -2924,7 +2958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -2936,7 +2970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>66</v>
@@ -2948,7 +2982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>68</v>
@@ -2960,7 +2994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>69</v>
@@ -2972,7 +3006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>70</v>
@@ -2984,7 +3018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
         <v>72</v>
@@ -2996,7 +3030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>74</v>
@@ -3008,7 +3042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -3020,7 +3054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>77</v>
@@ -3032,7 +3066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
         <v>78</v>
@@ -3044,7 +3078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>79</v>
@@ -3056,7 +3090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>81</v>
@@ -3068,7 +3102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
         <v>83</v>
@@ -3080,7 +3114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
         <v>84</v>
@@ -3092,13 +3126,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A47" s="7" t="s">
         <v>86</v>
       </c>
@@ -3112,7 +3146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
         <v>64</v>
@@ -3124,7 +3158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>70</v>
@@ -3136,13 +3170,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A51" s="7" t="s">
         <v>88</v>
       </c>
@@ -3156,7 +3190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>64</v>
@@ -3168,7 +3202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
         <v>89</v>
@@ -3180,7 +3214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
         <v>81</v>
@@ -3192,7 +3226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>84</v>
@@ -3204,13 +3238,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A57" s="7" t="s">
         <v>90</v>
       </c>
@@ -3224,7 +3258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>91</v>
@@ -3236,7 +3270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>93</v>
@@ -3261,14 +3295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
